--- a/articles/course_docs/coglab_2024_schedule.xlsx
+++ b/articles/course_docs/coglab_2024_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Documents/teaching/courses/PSYC 2740/coglab/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0978815F-809C-4D42-B848-E71FADB37994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5CC1D1-8B5F-7C45-B9C6-96F7298938EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
   <si>
     <t>Week</t>
   </si>
@@ -218,12 +218,6 @@
     <t>Wednesday, December 4, 2024</t>
   </si>
   <si>
-    <t>Wednesday, November 20, 2024</t>
-  </si>
-  <si>
-    <t>Saturday, December 21, 2024</t>
-  </si>
-  <si>
     <t>[W14: Odds and Ends](../modules/W14.html)</t>
   </si>
   <si>
@@ -279,6 +273,39 @@
   </si>
   <si>
     <t>Sunday, November 17, 2024</t>
+  </si>
+  <si>
+    <t>Sunday, September, 8, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Week 1 Reflection Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Sunday, October 27, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:green"&gt;Formative Assignment (jsPsych) Resubmission Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:green"&gt;Formative Assignment (R Descriptive) Resubmission Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Monday, November 18, 2024</t>
+  </si>
+  <si>
+    <t>Friday, November 22, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:green"&gt;Formative Assignment (R Inferential) Resubmission Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Sunday, December 8, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #10 (Team Skills)&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Friday, December 20, 2024</t>
   </si>
 </sst>
 </file>
@@ -688,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="119" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="143" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -735,47 +762,47 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="18">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="32" customHeight="1">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="32" customHeight="1">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34">
-      <c r="A6" s="11">
+    <row r="7" spans="1:3" ht="34">
+      <c r="A7" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>51</v>
+      <c r="B7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18">
@@ -783,32 +810,32 @@
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34">
-      <c r="A9" s="11">
+    <row r="10" spans="1:3" ht="34">
+      <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>52</v>
+      <c r="B10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18">
@@ -816,32 +843,32 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34">
-      <c r="A12" s="11">
+    <row r="13" spans="1:3" ht="34">
+      <c r="A13" s="11">
         <v>4</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>53</v>
+      <c r="B13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18">
@@ -849,54 +876,54 @@
         <v>5</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18">
-      <c r="A15" s="9">
+    <row r="16" spans="1:3" ht="18">
+      <c r="A16" s="9">
         <v>6</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
       <c r="A17">
         <v>6</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>12</v>
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
       <c r="A18">
-        <v>7</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>55</v>
+        <v>6</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
@@ -904,32 +931,32 @@
         <v>7</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="34">
-      <c r="A20" s="11">
+    <row r="21" spans="1:3" ht="34">
+      <c r="A21" s="11">
         <v>7</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>56</v>
+      <c r="B21" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18">
@@ -937,230 +964,285 @@
         <v>8</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
       <c r="A23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="34">
       <c r="A24">
-        <v>9</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="34">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18">
       <c r="A25">
         <v>9</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>13</v>
+      <c r="B25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18">
       <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18">
+    </row>
+    <row r="27" spans="1:3" ht="34">
       <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="34">
+        <v>9</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18">
       <c r="A28">
         <v>10</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>14</v>
+      <c r="B28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18">
       <c r="A29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18">
+    <row r="30" spans="1:3" ht="34">
       <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18">
+      <c r="A31">
         <v>11</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="34">
-      <c r="A31" s="11">
-        <v>11</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
       <c r="A32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18">
-      <c r="A33" s="11">
+    <row r="33" spans="1:3" ht="34">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="34">
+      <c r="A34" s="11">
+        <v>11</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18">
+      <c r="A35">
         <v>12</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="18">
-      <c r="A34" s="9">
-        <v>12</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="18">
-      <c r="A35" s="9">
-        <v>13</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>3</v>
+      <c r="B35" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
       <c r="A36" s="9">
+        <v>12</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18">
+      <c r="A37" s="11">
+        <v>12</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18">
+      <c r="A38" s="9">
         <v>13</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18">
+      <c r="A39" s="9">
+        <v>13</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="18">
-      <c r="A37">
-        <v>14</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="34">
-      <c r="A38" s="11">
-        <v>14</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="18">
-      <c r="A39">
-        <v>14</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18">
       <c r="A40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="34">
       <c r="A41" s="11">
+        <v>14</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="34">
+      <c r="A43">
+        <v>14</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18">
+      <c r="A44">
         <v>15</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B44" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="34">
+      <c r="A45" s="11">
+        <v>15</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="34">
-      <c r="A42" s="11">
+      <c r="C45" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="34">
+      <c r="A46" s="11">
         <v>16</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>70</v>
+      <c r="B46" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17">
+      <c r="A47" s="11">
+        <v>16</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/coglab_2024_schedule.xlsx
+++ b/articles/course_docs/coglab_2024_schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Documents/teaching/courses/PSYC 2740/coglab/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 2740/coglab/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5CC1D1-8B5F-7C45-B9C6-96F7298938EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D857AA-C31E-A14D-9097-4BF14D9AC52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
   <si>
     <t>Week</t>
   </si>
@@ -239,9 +239,6 @@
     <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #5 (Pre-Registration) Due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #6 (Analyses) Due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #7 (Poster Draft) Due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -257,9 +254,6 @@
     <t>Sunday, September 22, 2024</t>
   </si>
   <si>
-    <t>Sunday, September 30, 2024</t>
-  </si>
-  <si>
     <t>Sunday, October 13, 2024</t>
   </si>
   <si>
@@ -306,6 +300,18 @@
   </si>
   <si>
     <t>Friday, December 20, 2024</t>
+  </si>
+  <si>
+    <t>Sunday, September 29, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #6 (Analyses: Deadline 1) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Monday, December 2, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #6 (Analyses: Deadline 2) Due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -715,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="143" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="143" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -766,10 +772,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18">
@@ -799,7 +805,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>61</v>
@@ -832,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>62</v>
@@ -865,7 +871,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>63</v>
@@ -920,7 +926,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>12</v>
@@ -953,7 +959,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>64</v>
@@ -986,10 +992,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18">
@@ -1019,7 +1025,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>13</v>
@@ -1052,7 +1058,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>14</v>
@@ -1085,10 +1091,10 @@
         <v>11</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="34">
@@ -1096,7 +1102,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>65</v>
@@ -1124,15 +1130,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18">
+    <row r="37" spans="1:3" ht="34">
       <c r="A37" s="11">
         <v>12</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -1157,92 +1163,103 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18">
-      <c r="A40">
+    <row r="40" spans="1:3" ht="34">
+      <c r="A40" s="11">
         <v>14</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C41" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34">
-      <c r="A41" s="11">
+    <row r="42" spans="1:3" ht="34">
+      <c r="A42" s="11">
         <v>14</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B42" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="18">
-      <c r="A42">
-        <v>14</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="34">
+      <c r="C42" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18">
       <c r="A43">
         <v>14</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="18">
+      <c r="B43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="34">
       <c r="A44">
+        <v>14</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18">
+      <c r="A45">
         <v>15</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C45" s="17" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="34">
-      <c r="A45" s="11">
-        <v>15</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="34">
       <c r="A46" s="11">
-        <v>16</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="17">
+    <row r="47" spans="1:3" ht="34">
       <c r="A47" s="11">
         <v>16</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>87</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17">
+      <c r="A48" s="11">
+        <v>16</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/coglab_2024_schedule.xlsx
+++ b/articles/course_docs/coglab_2024_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 2740/coglab/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D857AA-C31E-A14D-9097-4BF14D9AC52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F674B93A-6FA6-234F-A717-9D4B8F4F442C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -254,12 +254,6 @@
     <t>Sunday, September 22, 2024</t>
   </si>
   <si>
-    <t>Sunday, October 13, 2024</t>
-  </si>
-  <si>
-    <t>Sunday, Oct 20, 2024</t>
-  </si>
-  <si>
     <t>Sunday, November 3, 2024</t>
   </si>
   <si>
@@ -312,6 +306,12 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #6 (Analyses: Deadline 2) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Monday, Oct 21, 2024</t>
+  </si>
+  <si>
+    <t>Monday, October 14, 2024</t>
   </si>
 </sst>
 </file>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="143" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="143" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -772,10 +772,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18">
@@ -871,7 +871,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>63</v>
@@ -926,7 +926,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>12</v>
@@ -959,7 +959,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>64</v>
@@ -992,10 +992,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18">
@@ -1025,7 +1025,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>13</v>
@@ -1058,7 +1058,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>14</v>
@@ -1091,10 +1091,10 @@
         <v>11</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="34">
@@ -1102,7 +1102,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>65</v>
@@ -1135,10 +1135,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -1168,10 +1168,10 @@
         <v>14</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18">
@@ -1212,10 +1212,10 @@
         <v>14</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18">
@@ -1245,7 +1245,7 @@
         <v>16</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>67</v>
@@ -1256,10 +1256,10 @@
         <v>16</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/coglab_2024_schedule.xlsx
+++ b/articles/course_docs/coglab_2024_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 2740/coglab/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Documents/teaching/courses/PSYC 2740/coglab/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F674B93A-6FA6-234F-A717-9D4B8F4F442C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4603D80-B4E2-C041-B5AE-E587D7F6789C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -212,9 +212,6 @@
     <t>[W8: Manipulate Data](../modules/W8.html)</t>
   </si>
   <si>
-    <t>[W9: Making Inferences](../modules/W9.html)</t>
-  </si>
-  <si>
     <t>Wednesday, December 4, 2024</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #4 (Full Experiment) Due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #5 (Pre-Registration) Due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #7 (Poster Draft) Due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -257,9 +251,6 @@
     <t>Sunday, November 3, 2024</t>
   </si>
   <si>
-    <t>Sunday, November 10, 2024</t>
-  </si>
-  <si>
     <t>Sunday, November 17, 2024</t>
   </si>
   <si>
@@ -312,6 +303,15 @@
   </si>
   <si>
     <t>Monday, October 14, 2024</t>
+  </si>
+  <si>
+    <t>Monday, November 11, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #5 (Pre-Registration + Checklist) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>[W9: Project Work](../modules/W9.html)</t>
   </si>
 </sst>
 </file>
@@ -350,7 +350,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +393,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -406,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -441,6 +447,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="143" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="143" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -772,10 +779,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18">
@@ -805,10 +812,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18">
@@ -838,10 +845,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18">
@@ -871,10 +878,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18">
@@ -926,7 +933,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>12</v>
@@ -959,10 +966,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18">
@@ -992,10 +999,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18">
@@ -1006,7 +1013,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18">
@@ -1025,7 +1032,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>13</v>
@@ -1057,11 +1064,11 @@
       <c r="A30">
         <v>10</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>14</v>
+      <c r="B30" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18">
@@ -1090,22 +1097,22 @@
       <c r="A33">
         <v>11</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>73</v>
+      <c r="B33" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="34">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18">
       <c r="A34" s="11">
         <v>11</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>65</v>
+      <c r="B34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -1135,10 +1142,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -1168,10 +1175,10 @@
         <v>14</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18">
@@ -1182,7 +1189,7 @@
         <v>42</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="34">
@@ -1190,10 +1197,10 @@
         <v>14</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18">
@@ -1212,10 +1219,10 @@
         <v>14</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18">
@@ -1226,7 +1233,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="34">
@@ -1237,7 +1244,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="34">
@@ -1245,10 +1252,10 @@
         <v>16</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17">
@@ -1256,10 +1263,10 @@
         <v>16</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/coglab_2024_schedule.xlsx
+++ b/articles/course_docs/coglab_2024_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Documents/teaching/courses/PSYC 2740/coglab/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4603D80-B4E2-C041-B5AE-E587D7F6789C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63661FBA-B78A-A24D-9EDE-334AFCC28068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="5500" windowWidth="34560" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -248,9 +248,6 @@
     <t>Sunday, September 22, 2024</t>
   </si>
   <si>
-    <t>Sunday, November 3, 2024</t>
-  </si>
-  <si>
     <t>Sunday, November 17, 2024</t>
   </si>
   <si>
@@ -312,6 +309,9 @@
   </si>
   <si>
     <t>[W9: Project Work](../modules/W9.html)</t>
+  </si>
+  <si>
+    <t>Monday, November 4, 2024</t>
   </si>
 </sst>
 </file>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="143" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="143" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -779,10 +779,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18">
@@ -878,7 +878,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>62</v>
@@ -933,7 +933,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>12</v>
@@ -966,7 +966,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>63</v>
@@ -999,10 +999,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18">
@@ -1013,7 +1013,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18">
@@ -1032,7 +1032,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>13</v>
@@ -1065,10 +1065,10 @@
         <v>10</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18">
@@ -1098,18 +1098,18 @@
         <v>11</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="18">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="34">
       <c r="A34" s="11">
         <v>11</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>14</v>
@@ -1142,10 +1142,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -1175,10 +1175,10 @@
         <v>14</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18">
@@ -1219,10 +1219,10 @@
         <v>14</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18">
@@ -1252,7 +1252,7 @@
         <v>16</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>65</v>
@@ -1263,10 +1263,10 @@
         <v>16</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/coglab_2024_schedule.xlsx
+++ b/articles/course_docs/coglab_2024_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Documents/teaching/courses/PSYC 2740/coglab/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 2740/coglab/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63661FBA-B78A-A24D-9EDE-334AFCC28068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0198056-E618-FD45-B4B6-AAF7279DD146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="5500" windowWidth="34560" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54860" yWindow="9920" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="143" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="143" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1104,7 +1104,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="34">
+    <row r="34" spans="1:3" ht="18">
       <c r="A34" s="11">
         <v>11</v>
       </c>

--- a/articles/course_docs/coglab_2024_schedule.xlsx
+++ b/articles/course_docs/coglab_2024_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 2740/coglab/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0198056-E618-FD45-B4B6-AAF7279DD146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C055936-F21A-D645-829D-7906DA52AE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54860" yWindow="9920" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="9920" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>Week</t>
   </si>
@@ -53,9 +53,6 @@
     <t>**THANKSGIVING BREAK!!! NO CLASS**</t>
   </si>
   <si>
-    <t>**Psychonomics Conference: NO CLASS**</t>
-  </si>
-  <si>
     <t>Weekly Module</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>W7 continued…</t>
   </si>
   <si>
-    <t>[Weeks 10-12: Data Collection](../modules/Weeks10_12.html)</t>
-  </si>
-  <si>
     <t>[W2: Experiment Anatomy](../modules/W2.html)</t>
   </si>
   <si>
@@ -312,6 +306,15 @@
   </si>
   <si>
     <t>Monday, November 4, 2024</t>
+  </si>
+  <si>
+    <t>[Weeks 10-12: Data Collection](../modules/W10_12.html)</t>
+  </si>
+  <si>
+    <t>[Weeks 10-12: Data Collection](../modules/10_12.html)</t>
+  </si>
+  <si>
+    <t>TBD: Might have class!</t>
   </si>
 </sst>
 </file>
@@ -730,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="143" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="143" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -749,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="49" customHeight="1">
@@ -757,10 +760,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18">
@@ -768,10 +771,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18">
@@ -779,10 +782,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18">
@@ -790,10 +793,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="32" customHeight="1">
@@ -801,10 +804,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="34">
@@ -812,10 +815,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18">
@@ -823,10 +826,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18">
@@ -834,10 +837,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34">
@@ -845,10 +848,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18">
@@ -856,10 +859,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18">
@@ -867,10 +870,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="34">
@@ -878,10 +881,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18">
@@ -889,10 +892,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18">
@@ -900,10 +903,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18">
@@ -911,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>2</v>
@@ -922,10 +925,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
@@ -933,10 +936,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
@@ -944,10 +947,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
@@ -955,10 +958,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34">
@@ -966,10 +969,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18">
@@ -977,10 +980,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
@@ -988,10 +991,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34">
@@ -999,10 +1002,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18">
@@ -1010,10 +1013,10 @@
         <v>9</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18">
@@ -1021,10 +1024,10 @@
         <v>9</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="34">
@@ -1032,10 +1035,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18">
@@ -1043,10 +1046,10 @@
         <v>10</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18">
@@ -1054,10 +1057,10 @@
         <v>10</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="34">
@@ -1065,10 +1068,10 @@
         <v>10</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18">
@@ -1076,10 +1079,10 @@
         <v>11</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
@@ -1087,10 +1090,10 @@
         <v>11</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="34">
@@ -1098,21 +1101,21 @@
         <v>11</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="34">
       <c r="A34" s="11">
         <v>11</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -1120,10 +1123,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
@@ -1131,10 +1134,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="34">
@@ -1142,10 +1145,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -1153,7 +1156,7 @@
         <v>13</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>3</v>
@@ -1164,7 +1167,7 @@
         <v>13</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>3</v>
@@ -1175,10 +1178,10 @@
         <v>14</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18">
@@ -1186,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="34">
@@ -1197,10 +1200,10 @@
         <v>14</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18">
@@ -1208,10 +1211,10 @@
         <v>14</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="34">
@@ -1219,10 +1222,10 @@
         <v>14</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18">
@@ -1230,10 +1233,10 @@
         <v>15</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="34">
@@ -1241,10 +1244,10 @@
         <v>15</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="34">
@@ -1252,10 +1255,10 @@
         <v>16</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17">
@@ -1263,10 +1266,10 @@
         <v>16</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/coglab_2024_schedule.xlsx
+++ b/articles/course_docs/coglab_2024_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 2740/coglab/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C055936-F21A-D645-829D-7906DA52AE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED056CDD-5425-2C4E-B475-DE6143742750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="9920" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
   <si>
     <t>Week</t>
   </si>
@@ -309,9 +309,6 @@
   </si>
   <si>
     <t>[Weeks 10-12: Data Collection](../modules/W10_12.html)</t>
-  </si>
-  <si>
-    <t>[Weeks 10-12: Data Collection](../modules/10_12.html)</t>
   </si>
   <si>
     <t>TBD: Might have class!</t>
@@ -733,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="143" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="143" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1059,8 +1056,8 @@
       <c r="B29" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>90</v>
+      <c r="C29" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="34">
@@ -1081,8 +1078,8 @@
       <c r="B31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>90</v>
+      <c r="C31" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
@@ -1092,8 +1089,8 @@
       <c r="B32" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>90</v>
+      <c r="C32" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="34">
@@ -1125,8 +1122,8 @@
       <c r="B35" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>90</v>
+      <c r="C35" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
@@ -1137,7 +1134,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="34">

--- a/articles/course_docs/coglab_2024_schedule.xlsx
+++ b/articles/course_docs/coglab_2024_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 2740/coglab/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED056CDD-5425-2C4E-B475-DE6143742750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7D8C7B-F487-C94E-8948-7F6A384ACE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="143" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="143" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1108,11 +1108,11 @@
       <c r="A34" s="11">
         <v>11</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>13</v>
+      <c r="C34" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -1137,15 +1137,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34">
+    <row r="37" spans="1:3" ht="18">
       <c r="A37" s="11">
         <v>12</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>80</v>
+      <c r="C37" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">

--- a/articles/course_docs/coglab_2024_schedule.xlsx
+++ b/articles/course_docs/coglab_2024_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 2740/coglab/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7D8C7B-F487-C94E-8948-7F6A384ACE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EF8E5B-3CAF-F349-AE00-9B51C043AF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
   <si>
     <t>Week</t>
   </si>
@@ -309,9 +309,6 @@
   </si>
   <si>
     <t>[Weeks 10-12: Data Collection](../modules/W10_12.html)</t>
-  </si>
-  <si>
-    <t>TBD: Might have class!</t>
   </si>
 </sst>
 </file>
@@ -731,7 +728,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="143" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1133,8 +1130,8 @@
       <c r="B36" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>90</v>
+      <c r="C36" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18">

--- a/articles/course_docs/coglab_2024_schedule.xlsx
+++ b/articles/course_docs/coglab_2024_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 2740/coglab/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EF8E5B-3CAF-F349-AE00-9B51C043AF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078D7FD8-3A41-FD4F-A363-F7196C03E806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -281,15 +281,9 @@
     <t>Sunday, September 29, 2024</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #6 (Analyses: Deadline 1) Due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Monday, December 2, 2024</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #6 (Analyses: Deadline 2) Due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Monday, Oct 21, 2024</t>
   </si>
   <si>
@@ -309,6 +303,12 @@
   </si>
   <si>
     <t>[Weeks 10-12: Data Collection](../modules/W10_12.html)</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #6a (Analyses: Deadline 1) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #6b (Analyses: Deadline 2) Due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="143" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -930,7 +930,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>11</v>
@@ -963,7 +963,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>61</v>
@@ -1010,7 +1010,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18">
@@ -1029,7 +1029,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>12</v>
@@ -1043,7 +1043,7 @@
         <v>33</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18">
@@ -1054,7 +1054,7 @@
         <v>34</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="34">
@@ -1062,10 +1062,10 @@
         <v>10</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18">
@@ -1076,7 +1076,7 @@
         <v>35</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
@@ -1087,7 +1087,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="34">
@@ -1109,7 +1109,7 @@
         <v>73</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -1120,7 +1120,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
@@ -1131,18 +1131,18 @@
         <v>38</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="18">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="34">
       <c r="A37" s="11">
         <v>12</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>13</v>
+      <c r="C37" s="14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -1167,15 +1167,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="34">
+    <row r="40" spans="1:3" ht="18">
       <c r="A40" s="11">
         <v>14</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18">

--- a/articles/course_docs/coglab_2024_schedule.xlsx
+++ b/articles/course_docs/coglab_2024_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 2740/coglab/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078D7FD8-3A41-FD4F-A363-F7196C03E806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6037D4-68D9-FC42-95A8-CAC4EB4D1E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
   <si>
     <t>Week</t>
   </si>
@@ -227,15 +227,6 @@
     <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #4 (Full Experiment) Due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #7 (Poster Draft) Due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #9 (Final Report) Due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #8 (Poster Symposium) &lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Sunday, September, 15, 2024</t>
   </si>
   <si>
@@ -269,12 +260,6 @@
     <t>&lt;b&gt;&lt;span style="color:green"&gt;Formative Assignment (R Inferential) Resubmission Due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>Sunday, December 8, 2024</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #10 (Team Skills)&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Friday, December 20, 2024</t>
   </si>
   <si>
@@ -309,6 +294,30 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #6b (Analyses: Deadline 2) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #7a (Poster Draft) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Monday, December 9, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #7b (Poster Final) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Sunday, December 15, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #8a (Poster Symposium) &lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone 8b (Collaboration) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #9 (Team Skills)&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #10 (Final Report) Due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -409,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -445,6 +454,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="143" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="143" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -776,10 +789,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18">
@@ -809,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>58</v>
@@ -842,7 +855,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>59</v>
@@ -875,7 +888,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>60</v>
@@ -930,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>11</v>
@@ -963,7 +976,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>61</v>
@@ -996,10 +1009,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18">
@@ -1010,7 +1023,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18">
@@ -1029,7 +1042,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>12</v>
@@ -1043,7 +1056,7 @@
         <v>33</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18">
@@ -1054,7 +1067,7 @@
         <v>34</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="34">
@@ -1062,10 +1075,10 @@
         <v>10</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18">
@@ -1076,7 +1089,7 @@
         <v>35</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
@@ -1087,32 +1100,32 @@
         <v>36</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="34">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="34">
       <c r="A33">
         <v>11</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="34">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="34">
       <c r="A34" s="11">
         <v>11</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="18">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18">
       <c r="A35">
         <v>12</v>
       </c>
@@ -1120,10 +1133,10 @@
         <v>37</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="18">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18">
       <c r="A36" s="9">
         <v>12</v>
       </c>
@@ -1131,21 +1144,21 @@
         <v>38</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="34">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="34">
       <c r="A37" s="11">
         <v>12</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18">
       <c r="A38" s="9">
         <v>13</v>
       </c>
@@ -1156,7 +1169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18">
+    <row r="39" spans="1:4" ht="18">
       <c r="A39" s="9">
         <v>13</v>
       </c>
@@ -1167,18 +1180,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18">
+    <row r="40" spans="1:4" ht="34">
       <c r="A40" s="11">
         <v>14</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18">
+    <row r="41" spans="1:4" ht="18">
       <c r="A41">
         <v>14</v>
       </c>
@@ -1189,7 +1202,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34">
+    <row r="42" spans="1:4" ht="34">
       <c r="A42" s="11">
         <v>14</v>
       </c>
@@ -1197,10 +1210,10 @@
         <v>55</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18">
       <c r="A43">
         <v>14</v>
       </c>
@@ -1211,18 +1224,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="34">
+    <row r="44" spans="1:4" ht="34">
       <c r="A44">
         <v>14</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="18">
+        <v>86</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:4" ht="18">
       <c r="A45">
         <v>15</v>
       </c>
@@ -1233,7 +1247,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="34">
+    <row r="46" spans="1:4" ht="34">
       <c r="A46" s="11">
         <v>15</v>
       </c>
@@ -1241,29 +1255,51 @@
         <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="34">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="34">
       <c r="A47" s="11">
-        <v>16</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>78</v>
+        <v>15</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="34">
       <c r="A48" s="11">
         <v>16</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>77</v>
+      <c r="B48" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17">
+      <c r="A49" s="11">
+        <v>16</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="34">
+      <c r="A50" s="11">
+        <v>16</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/coglab_2024_schedule.xlsx
+++ b/articles/course_docs/coglab_2024_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 2740/coglab/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6037D4-68D9-FC42-95A8-CAC4EB4D1E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C1EE87-C13E-0F46-9295-AC0CFFEC95E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>Week</t>
   </si>
@@ -297,9 +297,6 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #7a (Poster Draft) Due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>Monday, December 9, 2024</t>
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #7b (Poster Final) Due&lt;/span&gt;&lt;/b&gt;</t>
@@ -418,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -455,9 +452,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,7 +735,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="143" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1229,12 +1223,12 @@
         <v>14</v>
       </c>
       <c r="B44" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="20"/>
+      <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="18">
       <c r="A45">
@@ -1255,7 +1249,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="34">
@@ -1266,7 +1260,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34">
@@ -1274,7 +1268,7 @@
         <v>16</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>72</v>
@@ -1288,7 +1282,7 @@
         <v>73</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34">
@@ -1299,7 +1293,7 @@
         <v>73</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
